--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -41,6 +41,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-10-2024" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2024 PCHP_01-10-2024" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_09-10-2024" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_29-10-2024" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -5576,6 +5577,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.January</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.February</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8.157999999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.755000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.247</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.733</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>70.495</v>
+      </c>
+      <c r="C4" t="n">
+        <v>70.377</v>
+      </c>
+      <c r="D4" t="n">
+        <v>70.31699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -42,6 +42,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2024 PCHP_01-10-2024" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_09-10-2024" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_29-10-2024" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-11-2024" sheetId="37" state="visible" r:id="rId37"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -5661,6 +5662,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.January</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.February</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.828</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.442</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.967</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73.042</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -43,6 +43,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_09-10-2024" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_29-10-2024" sheetId="36" state="visible" r:id="rId36"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-11-2024" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-12-2024" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -5746,6 +5747,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.January</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.February</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6.328</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.873</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.811</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.489</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71.251</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.07299999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -1,49 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="24" activeTab="29" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-02-2024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07-02-2024" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08-02-2024" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-02-2024" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="28-02-2024" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-03-2024" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-03-2024" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05-03-2024" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-03-2024" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-03-2024" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="18-03-2024" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-03-2024" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-03-2024" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-04-2024" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-05-2024" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31-05-2024" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-06-2024" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-07-2024" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-08-2024" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-09-2024" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-09-2024" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_25-09-2024" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2024 PCHP_25-09-2024" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-10-2024" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2024 PCHP_01-10-2024" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_09-10-2024" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_29-10-2024" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-11-2024" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-12-2024" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="06-02-2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="07-02-2024" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="08-02-2024" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="13-02-2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="28-02-2024" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="01-03-2024" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="04-03-2024" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="05-03-2024" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="06-03-2024" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="13-03-2024" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="18-03-2024" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="20-03-2024" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="21-03-2024" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="01-04-2024" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="29-05-2024" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="31-05-2024" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="01-06-2024" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="01-07-2024" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="01-08-2024" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="01-09-2024" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="25-09-2024" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="FY2025 PCHP_25-09-2024" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="FY2024 PCHP_25-09-2024" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="FY2025 PCHP_01-10-2024" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="FY2024 PCHP_01-10-2024" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="FY2025 PCHP_09-10-2024" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="FY2025 PCHP_29-10-2024" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="FY2025 PCHP_01-11-2024" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="FY2025 PCHP_01-12-2024" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="FY2025 PCHP_11-12-2024" sheetId="39" state="visible" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -5831,6 +5832,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.January</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.February</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.542</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.384</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.058</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.889</v>
+      </c>
+      <c r="C4" t="n">
+        <v>71.652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.49299999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -45,6 +45,7 @@
     <sheet name="FY2025 PCHP_01-11-2024" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="FY2025 PCHP_01-12-2024" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="FY2025 PCHP_11-12-2024" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="FY2025 PCHP_16-12-2024" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6129,6 +6130,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.January</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.February</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.135</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.304</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.135</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.019</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.075</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73.73699999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.46899999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -1,50 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="24" activeTab="29" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="06-02-2024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="07-02-2024" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="08-02-2024" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="13-02-2024" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="28-02-2024" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="01-03-2024" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="04-03-2024" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="05-03-2024" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="06-03-2024" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="13-03-2024" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="18-03-2024" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="20-03-2024" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="21-03-2024" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="01-04-2024" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="29-05-2024" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="31-05-2024" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="01-06-2024" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="01-07-2024" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="01-08-2024" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="01-09-2024" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="25-09-2024" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="FY2025 PCHP_25-09-2024" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="FY2024 PCHP_25-09-2024" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="FY2025 PCHP_01-10-2024" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="FY2024 PCHP_01-10-2024" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="FY2025 PCHP_09-10-2024" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="FY2025 PCHP_29-10-2024" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="FY2025 PCHP_01-11-2024" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="FY2025 PCHP_01-12-2024" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="FY2025 PCHP_11-12-2024" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-02-2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="07-02-2024" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08-02-2024" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-02-2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14-02-2024" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="19-02-2024" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-02-2024" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-02-2024" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="22-02-2024" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="23-02-2024" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27-02-2024" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="28-02-2024" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-03-2024" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="04-03-2024" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="05-03-2024" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="06-03-2024" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11-03-2024" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13-03-2024" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="18-03-2024" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20-03-2024" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="21-03-2024" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-03-2024" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-04-2024" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="29-05-2024" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31-05-2024" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-06-2024" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-07-2024" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-08-2024" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="01-09-2024" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="25-09-2024" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_25-09-2024" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2024 PCHP_25-09-2024" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-10-2024" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2024 PCHP_01-10-2024" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_09-10-2024" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_29-10-2024" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-11-2024" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-12-2024" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_11-12-2024" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-01-2025" sheetId="40" state="visible" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6129,6 +6130,90 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.January</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.February</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.764</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.231</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.622</v>
+      </c>
+      <c r="C4" t="n">
+        <v>74.22199999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.86499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -46,6 +46,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-12-2024" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_11-12-2024" sheetId="39" state="visible" r:id="rId39"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-01-2025" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_03-02-2025" sheetId="41" state="visible" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6214,6 +6215,104 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.February</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.April</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.186</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.232</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.059</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.815</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.149</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.22199999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73.86499999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.545</v>
+      </c>
+      <c r="E4" t="n">
+        <v>73.236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -47,6 +47,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_11-12-2024" sheetId="39" state="visible" r:id="rId39"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-01-2025" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_03-02-2025" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-03-2025" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6313,6 +6314,118 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.346</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.517</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.461</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.331</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.045999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.886</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.785</v>
+      </c>
+      <c r="C4" t="n">
+        <v>72.25700000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.768</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71.279</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70.83199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -48,6 +48,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-01-2025" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_03-02-2025" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-03-2025" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_27-03-2025" sheetId="43" state="visible" r:id="rId43"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6426,6 +6427,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.March</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.April</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.414</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.517</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.125</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.749000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.395</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>71.39700000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.474</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71.895</v>
+      </c>
+      <c r="F4" t="n">
+        <v>71.37</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70.485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petronas-my.sharepoint.com/personal/ghayathri_asogan_petronas_com/Documents/Documents/GitHub/GCEM-HedgingView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_F2E79F4FF9FA6C98A0228BADC9156049507945E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF9BBFA9-8F3F-4F24-AEC4-24BB87B95525}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_F2E79F4FF9FA6C98A0228BADC9156049507945E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C16388B-F796-47DB-9E9C-77EC4D62F4B3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="787" firstSheet="40" activeTab="43" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="787" firstSheet="41" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="06-02-2024" sheetId="1" r:id="rId1"/>
@@ -57,6 +57,7 @@
     <sheet name="FY2025 PCHP_01-03-2025" sheetId="42" r:id="rId42"/>
     <sheet name="FY2025 PCHP_27-03-2025" sheetId="43" r:id="rId43"/>
     <sheet name="Ghaya Test" sheetId="44" r:id="rId44"/>
+    <sheet name="FY2025 PCHP_01-04-2025" sheetId="45" r:id="rId45"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="19">
   <si>
     <t>O.February</t>
   </si>
@@ -139,6 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -192,6 +196,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5581,7 +5586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E077F568-4D00-44D4-B764-B113E07BD824}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -5681,6 +5686,118 @@
       </c>
       <c r="G4">
         <v>70.484999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 For Internal Use - For Internal Distribution Only&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032FDC2-9C74-4003-AC94-BCCDCB7B1E1F}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>2.5</v>
+      </c>
+      <c r="C2">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="D2">
+        <v>5.4189999999999996</v>
+      </c>
+      <c r="E2">
+        <v>6.4130000000000003</v>
+      </c>
+      <c r="F2">
+        <v>7.258</v>
+      </c>
+      <c r="G2">
+        <v>7.9260000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2E-3</v>
+      </c>
+      <c r="C3">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.627</v>
+      </c>
+      <c r="G3">
+        <v>2.0939999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>74.971999999999994</v>
+      </c>
+      <c r="C4">
+        <v>74.188000000000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>73.48</v>
+      </c>
+      <c r="E4">
+        <v>72.846000000000004</v>
+      </c>
+      <c r="F4">
+        <v>72.287000000000006</v>
+      </c>
+      <c r="G4">
+        <v>71.801000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petronas-my.sharepoint.com/personal/ghayathri_asogan_petronas_com/Documents/Documents/GitHub/GCEM-HedgingView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F2E79F4FF9FA6C98A0228BADC9156049507945E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C16388B-F796-47DB-9E9C-77EC4D62F4B3}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_F2E79F4FF9FA6C98A0228BADC9156049507945E3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32FE89C2-0582-4148-A991-5C083A785F49}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="787" firstSheet="41" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5701,7 +5701,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5768,7 +5768,7 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="E3">
-        <v>1.1140000000000001</v>
+        <v>1.1180000000000001</v>
       </c>
       <c r="F3">
         <v>1.627</v>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -49,6 +49,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_03-02-2025" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-03-2025" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_27-03-2025" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_17-04-2025" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6567,6 +6568,174 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.April</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>O.November</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>O.December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.324</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.376</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.286</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.981</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.522</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.885</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.172</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.623</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.747</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.941</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.386</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.813</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.059</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>66.669</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.00700000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64.536</v>
+      </c>
+      <c r="F4" t="n">
+        <v>64.20999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63.993</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63.835</v>
+      </c>
+      <c r="I4" t="n">
+        <v>63.727</v>
+      </c>
+      <c r="J4" t="n">
+        <v>63.659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -50,6 +50,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-03-2025" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_27-03-2025" sheetId="43" state="visible" r:id="rId43"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_17-04-2025" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-05-2025" sheetId="45" state="visible" r:id="rId45"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6736,6 +6737,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>O.November</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>O.December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15.835</v>
+      </c>
+      <c r="C2" t="n">
+        <v>16.273</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.646</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16.896</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.014</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.097</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.222</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17.201</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.629</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.016</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.635</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.019</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.674</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.818</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61.074</v>
+      </c>
+      <c r="C4" t="n">
+        <v>60.719</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.496</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60.391</v>
+      </c>
+      <c r="G4" t="n">
+        <v>60.413</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60.485</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -51,6 +51,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_27-03-2025" sheetId="43" state="visible" r:id="rId43"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_17-04-2025" sheetId="44" state="visible" r:id="rId44"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-05-2025" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_13-05-2025" sheetId="46" state="visible" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -6891,6 +6892,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.May</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>O.November</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>O.December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>12.569</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.103</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.516</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.739</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.088</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.099</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.403</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.821</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.406</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>63.929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>64.422</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.04900000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>63.795</v>
+      </c>
+      <c r="F4" t="n">
+        <v>63.688</v>
+      </c>
+      <c r="G4" t="n">
+        <v>63.64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>63.643</v>
+      </c>
+      <c r="I4" t="n">
+        <v>63.698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -52,6 +52,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_17-04-2025" sheetId="44" state="visible" r:id="rId44"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-05-2025" sheetId="45" state="visible" r:id="rId45"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_13-05-2025" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-06-2025" sheetId="47" state="visible" r:id="rId47"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -7046,6 +7047,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.June</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.November</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>O.December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.978</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.574</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.853</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.967</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16.011</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.959</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.821</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.503</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.289</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.494</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.745</v>
+      </c>
+      <c r="C4" t="n">
+        <v>62.029</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.562</v>
+      </c>
+      <c r="E4" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61.414</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61.517</v>
+      </c>
+      <c r="H4" t="n">
+        <v>61.652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -53,6 +53,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-05-2025" sheetId="45" state="visible" r:id="rId45"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_13-05-2025" sheetId="46" state="visible" r:id="rId46"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-06-2025" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-07-2025" sheetId="48" state="visible" r:id="rId48"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -7187,6 +7188,232 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.July</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.November</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>O.December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.453</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.377</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.919</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.235</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.427</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.205</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.118</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.428</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.249</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4.818</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.226</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.902</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.459</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.869</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.949</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.742</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>66.512</v>
+      </c>
+      <c r="C8" t="n">
+        <v>65.64100000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>65.05500000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>64.724</v>
+      </c>
+      <c r="F8" t="n">
+        <v>64.598</v>
+      </c>
+      <c r="G8" t="n">
+        <v>64.54900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/BBG_Output.xlsx
+++ b/BBG_Output.xlsx
@@ -54,6 +54,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_13-05-2025" sheetId="46" state="visible" r:id="rId46"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-06-2025" sheetId="47" state="visible" r:id="rId47"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-07-2025" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FY2025 PCHP_01-08-2025" sheetId="49" state="visible" r:id="rId49"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -7414,6 +7415,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>O.August</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>O.September</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>O.October</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>O.November</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>O.December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.245</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.374000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.132999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.688000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.662</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.782</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.028</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.174</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.695</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.432</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.764</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.633</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4.228</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.719</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Swap Ref</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71.617</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70.718</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70.02</v>
+      </c>
+      <c r="E12" t="n">
+        <v>69.554</v>
+      </c>
+      <c r="F12" t="n">
+        <v>69.229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
